--- a/data/trans_media/Q02G_FES-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q02G_FES-Habitat-trans_media.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,29 +649,29 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,69</t>
+          <t>2,16; 6,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,95</t>
+          <t>1,48; 6,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,08</t>
+          <t>2,26; 5,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,59</t>
+          <t>2,84; 6,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 9,57</t>
+          <t>1,39; 9,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,42</t>
+          <t>1,82; 7,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,95</t>
+          <t>2,05; 4,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,77</t>
+          <t>3,3; 5,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,12</t>
+          <t>2,19; 4,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,75</t>
+          <t>3,18; 5,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,25</t>
+          <t>3,37; 6,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 8,75</t>
+          <t>1,97; 8,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,29</t>
+          <t>2,66; 5,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,33</t>
+          <t>2,36; 5,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,23</t>
+          <t>3,1; 5,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,18</t>
+          <t>2,5; 5,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,25</t>
+          <t>0,55; 3,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,22 +889,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,65</t>
+          <t>3,71; 6,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,49</t>
+          <t>2,15; 7,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,28</t>
+          <t>2,84; 5,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,14</t>
+          <t>1,98; 6,63</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,81</t>
+          <t>1,5; 5,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,43</t>
+          <t>2,36; 7,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,48</t>
+          <t>2,63; 5,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,85</t>
+          <t>3,37; 6,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,84</t>
+          <t>2,47; 4,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,16</t>
+          <t>3,3; 6,2</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,22</t>
+          <t>2,38; 4,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,43</t>
+          <t>2,79; 5,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,39</t>
+          <t>3,19; 4,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 4,92</t>
+          <t>3,37; 5,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,17</t>
+          <t>3,15; 4,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,83</t>
+          <t>3,28; 4,72</t>
         </is>
       </c>
     </row>
